--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2434365.2074472</v>
+        <v>-2437271.59540023</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>153.8072380324131</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>47.60797832237456</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>31.15457431472151</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>112.6362248866184</v>
       </c>
       <c r="I4" t="n">
-        <v>86.26896455301757</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>8.484528893292291</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>148.686509969291</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>48.47446402420342</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>107.6472665937745</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>113.5134296806474</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>189.4345791172895</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.59144668771794</v>
+        <v>11.59144668771795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>178.400545463479</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>236.0827540581883</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3578015096544</v>
       </c>
       <c r="H9" t="n">
-        <v>93.05761147715069</v>
+        <v>93.05761147715073</v>
       </c>
       <c r="I9" t="n">
-        <v>21.02879127064107</v>
+        <v>21.02879127064122</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.7993737669489</v>
+        <v>134.799373766949</v>
       </c>
       <c r="T9" t="n">
         <v>192.1609011263208</v>
       </c>
       <c r="U9" t="n">
-        <v>172.4764772368876</v>
+        <v>225.8107428932408</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>152.3484301209416</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3262220590292</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>105.3866826862325</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>37.54208877946901</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2282244128857</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.0043863243839</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.81060261323905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>117.6579322793583</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>99.97427419833815</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>3.475606507923894</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>89.67992556049165</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>111.306220275312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.4849283993767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065884</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.425007896998</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652581</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.8416170062749</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="C2" t="n">
-        <v>204.4218319897903</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="D2" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897903</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>359.7826784871773</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>170.3628934706926</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4328,52 +4328,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652792</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652792</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652792</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652792</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="V2" t="n">
-        <v>583.2614020227596</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="W2" t="n">
-        <v>583.2614020227596</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="X2" t="n">
-        <v>583.2614020227596</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227596</v>
+        <v>549.2024635036621</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.1739116400124</v>
+        <v>350.7471648378719</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>350.7471648378719</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4413,46 +4413,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="T3" t="n">
-        <v>702.0134816729817</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="U3" t="n">
-        <v>512.5936966564971</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="V3" t="n">
-        <v>512.5936966564971</v>
+        <v>540.1669498543567</v>
       </c>
       <c r="W3" t="n">
-        <v>323.1739116400124</v>
+        <v>540.1669498543567</v>
       </c>
       <c r="X3" t="n">
-        <v>323.1739116400124</v>
+        <v>540.1669498543567</v>
       </c>
       <c r="Y3" t="n">
-        <v>323.1739116400124</v>
+        <v>350.7471648378719</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>430.9130234466191</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="C4" t="n">
-        <v>430.9130234466191</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="D4" t="n">
-        <v>280.7963840342834</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="E4" t="n">
-        <v>280.7963840342834</v>
+        <v>468.0252453751184</v>
       </c>
       <c r="F4" t="n">
-        <v>280.7963840342834</v>
+        <v>321.135297877208</v>
       </c>
       <c r="G4" t="n">
-        <v>280.7963840342834</v>
+        <v>152.446474440123</v>
       </c>
       <c r="H4" t="n">
-        <v>125.8128781435565</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818524</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
@@ -4492,46 +4492,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295947</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242513</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846269</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768589</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768589</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768589</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768589</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768589</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768589</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="X4" t="n">
-        <v>612.5614882768589</v>
+        <v>615.9383389575115</v>
       </c>
       <c r="Y4" t="n">
-        <v>612.5614882768589</v>
+        <v>615.9383389575115</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>157.477756798422</v>
       </c>
       <c r="C5" t="n">
-        <v>423.8554133656</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D5" t="n">
         <v>157.477756798422</v>
@@ -4562,25 +4562,25 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,19 +4592,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709457</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V5" t="n">
-        <v>423.8554133656</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W5" t="n">
-        <v>423.8554133656</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="X5" t="n">
         <v>423.8554133656</v>
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>316.5660780344868</v>
+        <v>207.4579019260062</v>
       </c>
       <c r="C6" t="n">
-        <v>316.5660780344868</v>
+        <v>207.4579019260062</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6316683732355</v>
+        <v>207.4579019260062</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V6" t="n">
-        <v>801.367527981072</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W6" t="n">
-        <v>692.6329152600877</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="X6" t="n">
-        <v>484.7814150545548</v>
+        <v>375.6732389460743</v>
       </c>
       <c r="Y6" t="n">
-        <v>484.7814150545548</v>
+        <v>375.6732389460743</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>873.2070551757848</v>
+        <v>506.7253812282565</v>
       </c>
       <c r="C7" t="n">
-        <v>873.2070551757848</v>
+        <v>506.7253812282565</v>
       </c>
       <c r="D7" t="n">
-        <v>723.0904157634491</v>
+        <v>506.7253812282565</v>
       </c>
       <c r="E7" t="n">
-        <v>575.177322181056</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="F7" t="n">
-        <v>428.2873746831456</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>734.7149321262739</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.855520006025</v>
+        <v>506.7253812282565</v>
       </c>
       <c r="Y7" t="n">
-        <v>1054.855520006025</v>
+        <v>506.7253812282565</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1200.102682209137</v>
+        <v>1766.093505982612</v>
       </c>
       <c r="C8" t="n">
-        <v>831.1401652687249</v>
+        <v>1397.1309890422</v>
       </c>
       <c r="D8" t="n">
-        <v>472.8744666619744</v>
+        <v>1038.86529043545</v>
       </c>
       <c r="E8" t="n">
-        <v>472.8744666619744</v>
+        <v>653.0770378372056</v>
       </c>
       <c r="F8" t="n">
-        <v>61.88856187236686</v>
+        <v>242.091133047598</v>
       </c>
       <c r="G8" t="n">
-        <v>50.18002986457095</v>
+        <v>230.3826010398021</v>
       </c>
       <c r="H8" t="n">
-        <v>50.18002986457095</v>
+        <v>50.18002986457076</v>
       </c>
       <c r="I8" t="n">
-        <v>50.18002986457095</v>
+        <v>50.18002986457076</v>
       </c>
       <c r="J8" t="n">
-        <v>182.7858425480094</v>
+        <v>182.7858425480085</v>
       </c>
       <c r="K8" t="n">
-        <v>432.2660994956573</v>
+        <v>432.2660994956551</v>
       </c>
       <c r="L8" t="n">
-        <v>778.6701806505189</v>
+        <v>778.6701806505152</v>
       </c>
       <c r="M8" t="n">
-        <v>1195.780903300226</v>
+        <v>1195.780903300221</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.254721897073</v>
+        <v>1624.254721897066</v>
       </c>
       <c r="O8" t="n">
-        <v>2015.515137463598</v>
+        <v>2015.51513746359</v>
       </c>
       <c r="P8" t="n">
-        <v>2314.945849161034</v>
+        <v>2314.945849161026</v>
       </c>
       <c r="Q8" t="n">
-        <v>2491.633096951176</v>
+        <v>2491.633096951167</v>
       </c>
       <c r="R8" t="n">
-        <v>2509.001493228548</v>
+        <v>2509.001493228538</v>
       </c>
       <c r="S8" t="n">
-        <v>2509.001493228548</v>
+        <v>2509.001493228538</v>
       </c>
       <c r="T8" t="n">
-        <v>2509.001493228548</v>
+        <v>2509.001493228538</v>
       </c>
       <c r="U8" t="n">
-        <v>2270.534064886943</v>
+        <v>2509.001493228538</v>
       </c>
       <c r="V8" t="n">
-        <v>1939.471177543373</v>
+        <v>2509.001493228538</v>
       </c>
       <c r="W8" t="n">
-        <v>1586.702522273258</v>
+        <v>2156.232837958424</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.702522273258</v>
+        <v>2156.232837958424</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.702522273258</v>
+        <v>1766.093505982612</v>
       </c>
     </row>
     <row r="9">
@@ -4875,55 +4875,55 @@
         <v>165.4188205189061</v>
       </c>
       <c r="H9" t="n">
-        <v>71.4212331682488</v>
+        <v>71.42123316824876</v>
       </c>
       <c r="I9" t="n">
-        <v>50.18002986457095</v>
+        <v>50.18002986457076</v>
       </c>
       <c r="J9" t="n">
-        <v>110.3412965010726</v>
+        <v>110.341296501072</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7273937895791</v>
+        <v>483.7273937895757</v>
       </c>
       <c r="L9" t="n">
-        <v>773.3998950663132</v>
+        <v>773.3998950663089</v>
       </c>
       <c r="M9" t="n">
-        <v>1130.790909259324</v>
+        <v>1130.790909259319</v>
       </c>
       <c r="N9" t="n">
-        <v>1512.049645063618</v>
+        <v>1512.049645063612</v>
       </c>
       <c r="O9" t="n">
-        <v>1838.607108185902</v>
+        <v>1838.607108185894</v>
       </c>
       <c r="P9" t="n">
-        <v>2396.643336866297</v>
+        <v>2396.643336866289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2509.001493228548</v>
+        <v>2509.001493228538</v>
       </c>
       <c r="R9" t="n">
-        <v>2509.001493228548</v>
+        <v>2509.001493228538</v>
       </c>
       <c r="S9" t="n">
-        <v>2372.840509625569</v>
+        <v>2372.840509625559</v>
       </c>
       <c r="T9" t="n">
-        <v>2178.738589295952</v>
+        <v>2178.738589295942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.519925420308</v>
+        <v>1950.64692980782</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.367817188565</v>
+        <v>1715.494821576078</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.130460460364</v>
+        <v>1461.257464847876</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.278960254831</v>
+        <v>1253.405964642343</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.518661489877</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.2328522048136</v>
+        <v>938.4933728257854</v>
       </c>
       <c r="C10" t="n">
-        <v>200.2966692769067</v>
+        <v>769.5571898978785</v>
       </c>
       <c r="D10" t="n">
-        <v>50.18002986457095</v>
+        <v>619.4405504855428</v>
       </c>
       <c r="E10" t="n">
-        <v>50.18002986457095</v>
+        <v>471.5274569031496</v>
       </c>
       <c r="F10" t="n">
-        <v>50.18002986457095</v>
+        <v>324.6375094052393</v>
       </c>
       <c r="G10" t="n">
-        <v>50.18002986457095</v>
+        <v>156.6312244971289</v>
       </c>
       <c r="H10" t="n">
-        <v>50.18002986457095</v>
+        <v>156.6312244971289</v>
       </c>
       <c r="I10" t="n">
-        <v>50.18002986457095</v>
+        <v>50.18002986457076</v>
       </c>
       <c r="J10" t="n">
-        <v>74.27579920803517</v>
+        <v>74.2757992080347</v>
       </c>
       <c r="K10" t="n">
-        <v>243.7093868807943</v>
+        <v>243.7093868807934</v>
       </c>
       <c r="L10" t="n">
-        <v>516.0524797623403</v>
+        <v>516.0524797623389</v>
       </c>
       <c r="M10" t="n">
-        <v>813.5892089811312</v>
+        <v>813.5892089811291</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.485796228241</v>
+        <v>1109.485796228239</v>
       </c>
       <c r="O10" t="n">
-        <v>1366.777891286912</v>
+        <v>1366.777891286909</v>
       </c>
       <c r="P10" t="n">
-        <v>1563.415044963649</v>
+        <v>1563.415044963646</v>
       </c>
       <c r="Q10" t="n">
-        <v>1616.121337509879</v>
+        <v>1616.121337509876</v>
       </c>
       <c r="R10" t="n">
-        <v>1616.121337509879</v>
+        <v>1616.121337509876</v>
       </c>
       <c r="S10" t="n">
-        <v>1616.121337509879</v>
+        <v>1616.121337509876</v>
       </c>
       <c r="T10" t="n">
-        <v>1578.200035712436</v>
+        <v>1616.121337509876</v>
       </c>
       <c r="U10" t="n">
-        <v>1289.080617113561</v>
+        <v>1616.121337509876</v>
       </c>
       <c r="V10" t="n">
-        <v>1289.080617113561</v>
+        <v>1361.436849303989</v>
       </c>
       <c r="W10" t="n">
-        <v>999.6634470766008</v>
+        <v>1361.436849303989</v>
       </c>
       <c r="X10" t="n">
-        <v>771.6738961785835</v>
+        <v>1133.447298405971</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.8813170350534</v>
+        <v>938.4933728257854</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,55 +5027,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>379.859158574868</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5288,31 +5288,31 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2443.452369935893</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.597535590798</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5525,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5555,10 +5555,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,49 +5744,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,46 +6218,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,19 +6713,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319313</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150012</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942643</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580102</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518749</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7166,43 +7166,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7397,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7640,37 +7640,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319313</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150013</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942644</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,13 +8137,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>82.97369176944316</v>
+        <v>82.97369176944335</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711116</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>194.3495813497322</v>
+        <v>194.3495813497302</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>22.39094785983184</v>
+        <v>22.39094785983211</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971608</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>150.0611059922743</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>163.0865880738092</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>34.25153717561236</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>162.5797212940405</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>40.7974459452012</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.0213775686983</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>27.7631157435729</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.89964020219777</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.09972495271805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1384958.04273827</v>
+        <v>1384958.042738269</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1384958.04273827</v>
+        <v>1384958.042738269</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143661</v>
+        <v>32460.9111614366</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321417</v>
@@ -26323,37 +26323,37 @@
         <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="H2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477445</v>
+        <v>84336.10254477433</v>
       </c>
       <c r="D3" t="n">
-        <v>377667.3842427133</v>
+        <v>377667.3842427108</v>
       </c>
       <c r="E3" t="n">
-        <v>520208.8857598478</v>
+        <v>520208.8857598506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68492.66272217636</v>
+        <v>68492.66272217641</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040624</v>
+        <v>19608.42855040623</v>
       </c>
       <c r="L3" t="n">
-        <v>92007.8146272154</v>
+        <v>92007.81462721477</v>
       </c>
       <c r="M3" t="n">
-        <v>135930.294197953</v>
+        <v>135930.2941979537</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>254806.1641956505</v>
       </c>
       <c r="D4" t="n">
-        <v>148890.5984727425</v>
+        <v>148890.5984727432</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="J4" t="n">
+        <v>21597.6673749362</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21597.6673749362</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21597.66737493614</v>
+      </c>
+      <c r="M4" t="n">
         <v>21597.66737493621</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>21597.66737493617</v>
+      </c>
+      <c r="O4" t="n">
         <v>21597.66737493622</v>
       </c>
-      <c r="L4" t="n">
-        <v>21597.66737493622</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21597.66737493624</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21597.66737493622</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21597.66737493621</v>
-      </c>
       <c r="P4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493616</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>91889.82503145005</v>
+        <v>91889.82503144984</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-795281.4169748089</v>
+        <v>-795710.9758413979</v>
       </c>
       <c r="C6" t="n">
-        <v>-361137.981451477</v>
+        <v>-361137.9814514769</v>
       </c>
       <c r="D6" t="n">
-        <v>-577395.7192536916</v>
+        <v>-577395.7192536897</v>
       </c>
       <c r="E6" t="n">
-        <v>-594580.8937110973</v>
+        <v>-594615.6316365357</v>
       </c>
       <c r="F6" t="n">
-        <v>-74372.00795124954</v>
+        <v>-74406.74587668527</v>
       </c>
       <c r="G6" t="n">
-        <v>-74372.00795124954</v>
+        <v>-74406.74587668527</v>
       </c>
       <c r="H6" t="n">
-        <v>-74372.00795124956</v>
+        <v>-74406.74587668527</v>
       </c>
       <c r="I6" t="n">
-        <v>-74372.00795124956</v>
+        <v>-74406.74587668529</v>
       </c>
       <c r="J6" t="n">
         <v>-152202.3574578138</v>
       </c>
       <c r="K6" t="n">
-        <v>-103318.1232860437</v>
+        <v>-103318.1232860436</v>
       </c>
       <c r="L6" t="n">
-        <v>-175717.5093628528</v>
+        <v>-175717.5093628521</v>
       </c>
       <c r="M6" t="n">
-        <v>-219639.9889335905</v>
+        <v>-219639.9889335911</v>
       </c>
       <c r="N6" t="n">
-        <v>-83709.69473563741</v>
+        <v>-83709.6947356374</v>
       </c>
       <c r="O6" t="n">
         <v>-103137.4127292692</v>
       </c>
       <c r="P6" t="n">
-        <v>-83709.69473563744</v>
+        <v>-83709.69473563737</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>923.1835933200056</v>
+        <v>923.1835933200035</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>627.2503733071369</v>
+        <v>627.2503733071345</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>65.5850728565739</v>
+        <v>65.58507285657379</v>
       </c>
       <c r="D3" t="n">
-        <v>309.1285795505272</v>
+        <v>309.1285795505252</v>
       </c>
       <c r="E3" t="n">
-        <v>444.7919070216682</v>
+        <v>444.7919070216707</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518633</v>
+        <v>76.1882928351863</v>
       </c>
       <c r="D4" t="n">
-        <v>363.5364933056308</v>
+        <v>363.5364933056283</v>
       </c>
       <c r="E4" t="n">
-        <v>545.4579147925115</v>
+        <v>545.4579147925141</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518633</v>
+        <v>76.1882928351863</v>
       </c>
       <c r="L4" t="n">
-        <v>363.5364933056308</v>
+        <v>363.5364933056283</v>
       </c>
       <c r="M4" t="n">
-        <v>545.4579147925115</v>
+        <v>545.4579147925141</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518633</v>
+        <v>76.1882928351863</v>
       </c>
       <c r="L4" t="n">
-        <v>363.5364933056308</v>
+        <v>363.5364933056283</v>
       </c>
       <c r="M4" t="n">
-        <v>545.4579147925115</v>
+        <v>545.4579147925141</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>69.28935258311733</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>124.5242760144407</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>147.8016194696267</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377111</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>201.6460128347038</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945998</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098447</v>
       </c>
     </row>
     <row r="4">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.4382552178491</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>319.2677295768426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>221.044590709178</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,16 +27698,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>109.1706164311975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120974</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>144.0477165671451</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>53.37023735789921</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>97.08841921930153</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.4665449294817</v>
+        <v>123.0659994660028</v>
       </c>
       <c r="I8" t="n">
-        <v>67.39634994640784</v>
+        <v>67.39634994640815</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>124.449029856478</v>
+        <v>124.4490298564782</v>
       </c>
       <c r="T8" t="n">
         <v>206.849673967113</v>
       </c>
       <c r="U8" t="n">
-        <v>14.96599558345486</v>
+        <v>251.0487496416431</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>53.33426565635321</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>53.33426565636273</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3262220590292</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.4259666997844</v>
       </c>
       <c r="I10" t="n">
-        <v>105.3866826862324</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4398495319113</v>
+        <v>102.4398495319115</v>
       </c>
       <c r="S10" t="n">
-        <v>195.004418555096</v>
+        <v>195.0044185550961</v>
       </c>
       <c r="T10" t="n">
-        <v>183.2904467330682</v>
+        <v>220.8325355125372</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2282244128857</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.58026702771087</v>
       </c>
     </row>
     <row r="11">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.711290827417105</v>
+        <v>3.711290827417097</v>
       </c>
       <c r="H8" t="n">
-        <v>38.00825718628543</v>
+        <v>38.00825718628536</v>
       </c>
       <c r="I8" t="n">
-        <v>143.0795396239981</v>
+        <v>143.0795396239978</v>
       </c>
       <c r="J8" t="n">
-        <v>314.9911698634928</v>
+        <v>314.9911698634921</v>
       </c>
       <c r="K8" t="n">
-        <v>472.090110588059</v>
+        <v>472.0901105880579</v>
       </c>
       <c r="L8" t="n">
-        <v>585.6695272476253</v>
+        <v>585.669527247624</v>
       </c>
       <c r="M8" t="n">
-        <v>651.6701954997042</v>
+        <v>651.6701954997028</v>
       </c>
       <c r="N8" t="n">
-        <v>662.2149005631031</v>
+        <v>662.2149005631017</v>
       </c>
       <c r="O8" t="n">
-        <v>625.3107523979743</v>
+        <v>625.3107523979728</v>
       </c>
       <c r="P8" t="n">
-        <v>533.6882600961144</v>
+        <v>533.6882600961131</v>
       </c>
       <c r="Q8" t="n">
-        <v>400.7776573392392</v>
+        <v>400.7776573392383</v>
       </c>
       <c r="R8" t="n">
-        <v>233.1293724377399</v>
+        <v>233.1293724377394</v>
       </c>
       <c r="S8" t="n">
-        <v>84.57103972976736</v>
+        <v>84.57103972976718</v>
       </c>
       <c r="T8" t="n">
-        <v>16.24617559701839</v>
+        <v>16.24617559701835</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2969032661933683</v>
+        <v>0.2969032661933677</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.985715653556238</v>
+        <v>1.985715653556234</v>
       </c>
       <c r="H9" t="n">
-        <v>19.17783275934578</v>
+        <v>19.17783275934574</v>
       </c>
       <c r="I9" t="n">
-        <v>68.36784158077401</v>
+        <v>68.36784158077386</v>
       </c>
       <c r="J9" t="n">
-        <v>187.6065828651532</v>
+        <v>187.6065828651528</v>
       </c>
       <c r="K9" t="n">
-        <v>320.6495316534212</v>
+        <v>320.6495316534205</v>
       </c>
       <c r="L9" t="n">
-        <v>431.1528659179895</v>
+        <v>431.1528659179885</v>
       </c>
       <c r="M9" t="n">
-        <v>503.135058359403</v>
+        <v>503.1350583594019</v>
       </c>
       <c r="N9" t="n">
-        <v>516.451546229085</v>
+        <v>516.4515462290839</v>
       </c>
       <c r="O9" t="n">
-        <v>472.4522678002862</v>
+        <v>472.4522678002852</v>
       </c>
       <c r="P9" t="n">
-        <v>379.1845970374189</v>
+        <v>379.1845970374181</v>
       </c>
       <c r="Q9" t="n">
-        <v>253.4748613206174</v>
+        <v>253.4748613206168</v>
       </c>
       <c r="R9" t="n">
-        <v>123.2885561041321</v>
+        <v>123.2885561041318</v>
       </c>
       <c r="S9" t="n">
-        <v>36.88379733688888</v>
+        <v>36.8837973368888</v>
       </c>
       <c r="T9" t="n">
-        <v>8.0038275685008</v>
+        <v>8.003827568500782</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1306391877339631</v>
+        <v>0.1306391877339628</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.664757299429518</v>
+        <v>1.664757299429514</v>
       </c>
       <c r="H10" t="n">
-        <v>14.80120580765518</v>
+        <v>14.80120580765515</v>
       </c>
       <c r="I10" t="n">
-        <v>50.06379224102589</v>
+        <v>50.06379224102577</v>
       </c>
       <c r="J10" t="n">
-        <v>117.6983410696669</v>
+        <v>117.6983410696667</v>
       </c>
       <c r="K10" t="n">
-        <v>193.4145298791749</v>
+        <v>193.4145298791744</v>
       </c>
       <c r="L10" t="n">
-        <v>247.5040079533668</v>
+        <v>247.5040079533662</v>
       </c>
       <c r="M10" t="n">
-        <v>260.9582737642107</v>
+        <v>260.9582737642101</v>
       </c>
       <c r="N10" t="n">
-        <v>254.7532692845191</v>
+        <v>254.7532692845185</v>
       </c>
       <c r="O10" t="n">
-        <v>235.3058771957287</v>
+        <v>235.3058771957282</v>
       </c>
       <c r="P10" t="n">
-        <v>201.3448282873664</v>
+        <v>201.3448282873659</v>
       </c>
       <c r="Q10" t="n">
-        <v>139.4007225913208</v>
+        <v>139.4007225913205</v>
       </c>
       <c r="R10" t="n">
-        <v>74.85354184525814</v>
+        <v>74.85354184525796</v>
       </c>
       <c r="S10" t="n">
-        <v>29.01217948187623</v>
+        <v>29.01217948187616</v>
       </c>
       <c r="T10" t="n">
-        <v>7.113053915744302</v>
+        <v>7.113053915744286</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09080494360524655</v>
+        <v>0.09080494360524634</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>99.08507489005466</v>
+        <v>99.08507489005487</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.4384048176305</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>133.9452653368065</v>
+        <v>133.9452653368058</v>
       </c>
       <c r="K8" t="n">
-        <v>252.0002595430784</v>
+        <v>252.0002595430773</v>
       </c>
       <c r="L8" t="n">
-        <v>349.9031122776381</v>
+        <v>349.9031122776368</v>
       </c>
       <c r="M8" t="n">
-        <v>421.3239622724315</v>
+        <v>421.3239622724301</v>
       </c>
       <c r="N8" t="n">
-        <v>432.8018369665122</v>
+        <v>432.8018369665107</v>
       </c>
       <c r="O8" t="n">
-        <v>395.2125409762875</v>
+        <v>395.212540976286</v>
       </c>
       <c r="P8" t="n">
-        <v>302.4552643408448</v>
+        <v>302.4552643408436</v>
       </c>
       <c r="Q8" t="n">
-        <v>178.4719674647897</v>
+        <v>178.4719674647888</v>
       </c>
       <c r="R8" t="n">
-        <v>17.54383462360781</v>
+        <v>17.5438346236073</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.76895619848653</v>
+        <v>60.76895619848614</v>
       </c>
       <c r="K9" t="n">
-        <v>377.1576740287944</v>
+        <v>377.1576740287916</v>
       </c>
       <c r="L9" t="n">
-        <v>292.5984861381153</v>
+        <v>292.5984861381143</v>
       </c>
       <c r="M9" t="n">
-        <v>361.0010244373847</v>
+        <v>361.0010244373835</v>
       </c>
       <c r="N9" t="n">
-        <v>385.1098341457517</v>
+        <v>385.1098341457506</v>
       </c>
       <c r="O9" t="n">
-        <v>329.8560233558418</v>
+        <v>329.8560233558408</v>
       </c>
       <c r="P9" t="n">
-        <v>563.6729582630259</v>
+        <v>563.6729582630251</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.4930872345959</v>
+        <v>113.4930872345953</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.33916095299415</v>
+        <v>24.33916095299388</v>
       </c>
       <c r="K10" t="n">
-        <v>171.145038053292</v>
+        <v>171.1450380532916</v>
       </c>
       <c r="L10" t="n">
-        <v>275.0940332136829</v>
+        <v>275.0940332136823</v>
       </c>
       <c r="M10" t="n">
-        <v>300.5421507260513</v>
+        <v>300.5421507260507</v>
       </c>
       <c r="N10" t="n">
-        <v>298.8854416637477</v>
+        <v>298.8854416637471</v>
       </c>
       <c r="O10" t="n">
-        <v>259.8910051097683</v>
+        <v>259.8910051097679</v>
       </c>
       <c r="P10" t="n">
-        <v>198.6233875522599</v>
+        <v>198.6233875522594</v>
       </c>
       <c r="Q10" t="n">
-        <v>53.23867933962644</v>
+        <v>53.23867933962613</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
